--- a/Friobom/Engineering/data/excel_files/3026-322_06_F.xlsx
+++ b/Friobom/Engineering/data/excel_files/3026-322_06_F.xlsx
@@ -535,31 +535,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2" t="n">
-        <v>6986</v>
+        <v>7037</v>
       </c>
       <c r="H2" t="n">
-        <v>60861.59</v>
+        <v>61275.08</v>
       </c>
       <c r="I2" t="n">
-        <v>8.539999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="J2" t="n">
-        <v>2095.8</v>
+        <v>2111.1</v>
       </c>
       <c r="K2" t="n">
-        <v>16.46</v>
+        <v>16.55</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6986</v>
+        <v>7037</v>
       </c>
       <c r="N2" t="n">
-        <v>582.1666666666666</v>
+        <v>586.4166666666666</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -590,31 +590,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G3" t="n">
-        <v>3803</v>
+        <v>3819</v>
       </c>
       <c r="H3" t="n">
-        <v>32978.07</v>
+        <v>33109.13</v>
       </c>
       <c r="I3" t="n">
-        <v>8.49</v>
+        <v>8.48</v>
       </c>
       <c r="J3" t="n">
-        <v>1140.9</v>
+        <v>1145.7</v>
       </c>
       <c r="K3" t="n">
-        <v>9.01</v>
+        <v>9.02</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3803</v>
+        <v>3819</v>
       </c>
       <c r="N3" t="n">
-        <v>316.9166666666667</v>
+        <v>318.25</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -645,31 +645,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G4" t="n">
-        <v>2371</v>
+        <v>2379</v>
       </c>
       <c r="H4" t="n">
-        <v>21564.25</v>
+        <v>21631.7</v>
       </c>
       <c r="I4" t="n">
         <v>8.44</v>
       </c>
       <c r="J4" t="n">
-        <v>711.3</v>
+        <v>713.7</v>
       </c>
       <c r="K4" t="n">
-        <v>6.14</v>
+        <v>6.16</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2371</v>
+        <v>2379</v>
       </c>
       <c r="N4" t="n">
-        <v>197.5833333333333</v>
+        <v>198.25</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -700,31 +700,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G5" t="n">
-        <v>997</v>
+        <v>1024</v>
       </c>
       <c r="H5" t="n">
-        <v>7631.82</v>
+        <v>7837.71</v>
       </c>
       <c r="I5" t="n">
         <v>7.73</v>
       </c>
       <c r="J5" t="n">
-        <v>299.1</v>
+        <v>307.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>997</v>
+        <v>1024</v>
       </c>
       <c r="N5" t="n">
-        <v>83.08333333333333</v>
+        <v>85.33333333333333</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -758,16 +758,16 @@
         <v>61</v>
       </c>
       <c r="G6" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H6" t="n">
-        <v>1972.61</v>
+        <v>1987.79</v>
       </c>
       <c r="I6" t="n">
         <v>7.83</v>
       </c>
       <c r="J6" t="n">
-        <v>76.2</v>
+        <v>76.8</v>
       </c>
       <c r="K6" t="n">
         <v>0.5</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N6" t="n">
-        <v>21.16666666666667</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -813,16 +813,16 @@
         <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" t="n">
-        <v>820.8099999999999</v>
+        <v>835.99</v>
       </c>
       <c r="I7" t="n">
         <v>7.94</v>
       </c>
       <c r="J7" t="n">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="K7" t="n">
         <v>0.17</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N7" t="n">
-        <v>8.75</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
